--- a/Energy Consumption28.xlsx
+++ b/Energy Consumption28.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.93040546001987</v>
+        <v>1.836570346695847</v>
       </c>
       <c r="C2" t="n">
-        <v>3.957113728939119</v>
+        <v>1.96036690553072</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.906710502523192</v>
+        <v>2.714261191003767</v>
       </c>
       <c r="C3" t="n">
-        <v>8.459853844812359</v>
+        <v>3.877085295812139</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.069424735199141</v>
+        <v>5.311891470459845</v>
       </c>
       <c r="C4" t="n">
-        <v>12.26420880554755</v>
+        <v>5.965292690314715</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7.030927775396944</v>
+        <v>6.15422784167213</v>
       </c>
       <c r="C5" t="n">
-        <v>16.20966045751726</v>
+        <v>8.016623461272442</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8.490851755316971</v>
+        <v>9.85293134482966</v>
       </c>
       <c r="C6" t="n">
-        <v>20.24963314435644</v>
+        <v>9.992153466566959</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.311569027427</v>
+        <v>10.4712054436148</v>
       </c>
       <c r="C7" t="n">
-        <v>23.98840253386463</v>
+        <v>12.24408646052714</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.47740449099083</v>
+        <v>16.02307573052934</v>
       </c>
       <c r="C8" t="n">
-        <v>27.44839350354286</v>
+        <v>14.14681200848843</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17.03005128012017</v>
+        <v>17.34701051379703</v>
       </c>
       <c r="C9" t="n">
-        <v>31.41387195099467</v>
+        <v>16.1421766770639</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.05618985620487</v>
+        <v>17.63930664055301</v>
       </c>
       <c r="C10" t="n">
-        <v>35.30173553105553</v>
+        <v>18.13190342498724</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.91381224460174</v>
+        <v>20.40644316777218</v>
       </c>
       <c r="C11" t="n">
-        <v>39.80841110476395</v>
+        <v>20.25672230162973</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>24.78024303692959</v>
+        <v>22.50801094171332</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9853024966554</v>
+        <v>22.63859122061831</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>26.80081060846238</v>
+        <v>28.19635979995576</v>
       </c>
       <c r="C13" t="n">
-        <v>47.8092143371541</v>
+        <v>24.51205309412098</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.95825275714722</v>
+        <v>30.0158194680641</v>
       </c>
       <c r="C14" t="n">
-        <v>52.03799822249184</v>
+        <v>26.28133380295972</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.08504182232151</v>
+        <v>30.99487649024563</v>
       </c>
       <c r="C15" t="n">
-        <v>56.18986772770818</v>
+        <v>28.4091613865959</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>31.99470526777651</v>
+        <v>32.76801620776994</v>
       </c>
       <c r="C16" t="n">
-        <v>60.28042282126503</v>
+        <v>30.43487046935713</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.54164958389465</v>
+        <v>35.55660041797303</v>
       </c>
       <c r="C17" t="n">
-        <v>64.02826603242816</v>
+        <v>32.62877408201998</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>36.04101888999002</v>
+        <v>37.818976932774</v>
       </c>
       <c r="C18" t="n">
-        <v>67.40739934654368</v>
+        <v>34.6255795201146</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38.75027981663643</v>
+        <v>38.75320938252725</v>
       </c>
       <c r="C19" t="n">
-        <v>71.65091340449464</v>
+        <v>36.37284374515027</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>41.22291105504569</v>
+        <v>39.57724138340481</v>
       </c>
       <c r="C20" t="n">
-        <v>75.34087529611054</v>
+        <v>38.44066646180399</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>43.21881756956532</v>
+        <v>39.83469695094952</v>
       </c>
       <c r="C21" t="n">
-        <v>79.27954640910268</v>
+        <v>40.65711678213948</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46.44531821081451</v>
+        <v>39.93376651393991</v>
       </c>
       <c r="C22" t="n">
-        <v>83.14758111936906</v>
+        <v>42.56394554571474</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46.87564738907275</v>
+        <v>40.30138110509802</v>
       </c>
       <c r="C23" t="n">
-        <v>87.07945754619593</v>
+        <v>44.61665579937293</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>48.39833519919097</v>
+        <v>42.05886214667142</v>
       </c>
       <c r="C24" t="n">
-        <v>90.74214496454908</v>
+        <v>46.36668027265851</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49.99950662627656</v>
+        <v>43.81387140733236</v>
       </c>
       <c r="C25" t="n">
-        <v>95.60264735283961</v>
+        <v>48.33727649334537</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>52.25510691010026</v>
+        <v>48.50411245895745</v>
       </c>
       <c r="C26" t="n">
-        <v>99.33626689085612</v>
+        <v>50.37800334206129</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>54.13141486313037</v>
+        <v>54.30951254556948</v>
       </c>
       <c r="C27" t="n">
-        <v>103.1623155490772</v>
+        <v>52.14866232195176</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>55.81412631620926</v>
+        <v>57.03939531926715</v>
       </c>
       <c r="C28" t="n">
-        <v>107.5585315825225</v>
+        <v>54.08270892561379</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>56.85648087336435</v>
+        <v>57.98630815488951</v>
       </c>
       <c r="C29" t="n">
-        <v>111.2055594164556</v>
+        <v>56.00385695311693</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>57.49523340723945</v>
+        <v>60.99500471085199</v>
       </c>
       <c r="C30" t="n">
-        <v>115.8007613749156</v>
+        <v>57.91294066701746</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>59.82899845738152</v>
+        <v>63.40974947496235</v>
       </c>
       <c r="C31" t="n">
-        <v>120.0382184305506</v>
+        <v>59.8996195904618</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>61.80575296846926</v>
+        <v>64.88555087930017</v>
       </c>
       <c r="C32" t="n">
-        <v>123.8512750395384</v>
+        <v>62.01882427224799</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>62.7577163477667</v>
+        <v>65.28759822568567</v>
       </c>
       <c r="C33" t="n">
-        <v>127.646786642793</v>
+        <v>63.92312366625588</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>63.14029653400461</v>
+        <v>66.45436210475127</v>
       </c>
       <c r="C34" t="n">
-        <v>131.3801004544319</v>
+        <v>65.87404079025841</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>64.2436099853593</v>
+        <v>69.25998582639978</v>
       </c>
       <c r="C35" t="n">
-        <v>135.3441394676886</v>
+        <v>68.37567231043249</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>64.8281769559983</v>
+        <v>74.34239320165251</v>
       </c>
       <c r="C36" t="n">
-        <v>138.8997402295234</v>
+        <v>70.22361291175963</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.3630507827129</v>
+        <v>76.75561101239953</v>
       </c>
       <c r="C37" t="n">
-        <v>143.5485567866897</v>
+        <v>72.31360563528949</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.37490323928175</v>
+        <v>80.04769583365753</v>
       </c>
       <c r="C38" t="n">
-        <v>147.8768635958819</v>
+        <v>74.32509059628343</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69.09014428459551</v>
+        <v>81.41304005115973</v>
       </c>
       <c r="C39" t="n">
-        <v>151.6577187684889</v>
+        <v>76.2335061477208</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>70.83104670966871</v>
+        <v>82.26571891056187</v>
       </c>
       <c r="C40" t="n">
-        <v>155.5483939363286</v>
+        <v>78.03996516697632</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>72.79846850694251</v>
+        <v>82.51746998987669</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7002380598485</v>
+        <v>79.79290720682204</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>76.7230936784941</v>
+        <v>83.60169195955582</v>
       </c>
       <c r="C42" t="n">
-        <v>164.0681056630773</v>
+        <v>81.91606523947326</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>82.67537808398113</v>
+        <v>85.68747994543715</v>
       </c>
       <c r="C43" t="n">
-        <v>167.8910682665458</v>
+        <v>83.69815773714902</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>83.66871523196075</v>
+        <v>86.51911434575526</v>
       </c>
       <c r="C44" t="n">
-        <v>171.6478804277625</v>
+        <v>85.749628110865</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>85.75961150237151</v>
+        <v>91.34926719130266</v>
       </c>
       <c r="C45" t="n">
-        <v>175.410997290513</v>
+        <v>87.56096242341324</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>87.37132659836577</v>
+        <v>93.4958875262132</v>
       </c>
       <c r="C46" t="n">
-        <v>179.6458804662799</v>
+        <v>89.83542655597611</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>88.63932749590541</v>
+        <v>94.42755217681183</v>
       </c>
       <c r="C47" t="n">
-        <v>182.9640109523665</v>
+        <v>91.81763896012852</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>92.98030858437684</v>
+        <v>95.72448597396846</v>
       </c>
       <c r="C48" t="n">
-        <v>187.0729346338137</v>
+        <v>93.82590699549186</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>95.12983506650542</v>
+        <v>99.93677721042408</v>
       </c>
       <c r="C49" t="n">
-        <v>190.7811730890112</v>
+        <v>96.00151164036893</v>
       </c>
     </row>
   </sheetData>
